--- a/promos/NFL_Grand_Salami.xlsx
+++ b/promos/NFL_Grand_Salami.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/promos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Library/Containers/com.microsoft.Excel/Data/Desktop/My Projects/bettingatwork/promos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E00B86F-010D-C04C-A006-E4F120449D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCA1CF1-4EE5-7343-A583-06EE8BE5B3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{86D8E161-8918-1F44-9DF6-E88F445DFADA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{86D8E161-8918-1F44-9DF6-E88F445DFADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
     <sheet name="TeamLookup" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
   <si>
     <t>odds</t>
   </si>
@@ -419,13 +419,61 @@
   </si>
   <si>
     <t>Vegas Odds</t>
+  </si>
+  <si>
+    <t>New York Giants at Washington Football Team</t>
+  </si>
+  <si>
+    <t>Las Vegas Raiders at Pittsburgh Steelers</t>
+  </si>
+  <si>
+    <t>Cincinnati Bengals at Chicago Bears</t>
+  </si>
+  <si>
+    <t>Houston Texans at Cleveland Browns</t>
+  </si>
+  <si>
+    <t>Los Angeles Rams at Indianapolis Colts</t>
+  </si>
+  <si>
+    <t>Buffalo Bills at Miami Dolphins</t>
+  </si>
+  <si>
+    <t>New England Patriots at New York Jets</t>
+  </si>
+  <si>
+    <t>San Francisco 49ers at Philadelphia Eagles</t>
+  </si>
+  <si>
+    <t>New Orleans Saints at Carolina Panthers</t>
+  </si>
+  <si>
+    <t>Denver Broncos at Jacksonville Jaguars</t>
+  </si>
+  <si>
+    <t>Minnesota Vikings at Arizona Cardinals</t>
+  </si>
+  <si>
+    <t>Atlanta Falcons at Tampa Bay Buccaneers</t>
+  </si>
+  <si>
+    <t>Dallas Cowboys at Los Angeles Chargers</t>
+  </si>
+  <si>
+    <t>Tennessee Titans at Seattle Seahawks</t>
+  </si>
+  <si>
+    <t>Kansas City Chiefs at Baltimore Ravens</t>
+  </si>
+  <si>
+    <t>Detroit Lions at Green Bay Packers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,13 +504,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.5"/>
-      <color rgb="FF343434"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -567,16 +608,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -586,6 +623,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553B0987-CD40-5446-A40C-0C79764CC678}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,30 +958,30 @@
       <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="9"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="10" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -967,13 +1007,13 @@
       <c r="H3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="11">
         <v>750</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="12">
         <v>-125</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="13">
         <v>-115</v>
       </c>
     </row>
@@ -1260,67 +1300,145 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="40" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="B40" s="5"/>
+    <row r="25" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="G26">
+        <f>SUM(C26:C41)</f>
+        <v>777.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="2">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="2">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="2">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="2">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="2">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="2">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="2">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="2">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="2">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="2">
+        <v>55.5</v>
+      </c>
     </row>
     <row r="41" spans="2:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="2">
+        <v>48.5</v>
+      </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>

--- a/promos/NFL_Grand_Salami.xlsx
+++ b/promos/NFL_Grand_Salami.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Library/Containers/com.microsoft.Excel/Data/Desktop/My Projects/bettingatwork/promos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/promos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCA1CF1-4EE5-7343-A583-06EE8BE5B3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D3D78D-B589-9B4B-A433-EE50C10F90F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{86D8E161-8918-1F44-9DF6-E88F445DFADA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{86D8E161-8918-1F44-9DF6-E88F445DFADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="160">
   <si>
     <t>odds</t>
   </si>
@@ -467,6 +467,54 @@
   </si>
   <si>
     <t>Detroit Lions at Green Bay Packers</t>
+  </si>
+  <si>
+    <t>Jacksonville Jaguars at Cincinnati Bengals</t>
+  </si>
+  <si>
+    <t>Washington Football Team at Atlanta Falcons</t>
+  </si>
+  <si>
+    <t>Detroit Lions at Chicago Bears</t>
+  </si>
+  <si>
+    <t>Tennessee Titans at New York Jets</t>
+  </si>
+  <si>
+    <t>Cleveland Browns at Minnesota Vikings</t>
+  </si>
+  <si>
+    <t>Indianapolis Colts at Miami Dolphins</t>
+  </si>
+  <si>
+    <t>Carolina Panthers at Dallas Cowboys</t>
+  </si>
+  <si>
+    <t>New York Giants at New Orleans Saints</t>
+  </si>
+  <si>
+    <t>Kansas City Chiefs at Philadelphia Eagles</t>
+  </si>
+  <si>
+    <t>Houston Texans at Buffalo Bills</t>
+  </si>
+  <si>
+    <t>Arizona Cardinals at Los Angeles Rams</t>
+  </si>
+  <si>
+    <t>Seattle Seahawks at San Francisco 49ers</t>
+  </si>
+  <si>
+    <t>Baltimore Ravens at Denver Broncos</t>
+  </si>
+  <si>
+    <t>Pittsburgh Steelers at Green Bay Packers</t>
+  </si>
+  <si>
+    <t>Tampa Bay Buccaneers at New England Patriots</t>
+  </si>
+  <si>
+    <t>Las Vegas Raiders at Los Angeles Chargers</t>
   </si>
 </sst>
 </file>
@@ -940,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553B0987-CD40-5446-A40C-0C79764CC678}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1368,7 +1416,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="23" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>135</v>
       </c>
@@ -1376,7 +1424,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="23" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>136</v>
       </c>
@@ -1384,7 +1432,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="23" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>137</v>
       </c>
@@ -1392,7 +1440,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="23" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>138</v>
       </c>
@@ -1400,7 +1448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="23" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>139</v>
       </c>
@@ -1408,7 +1456,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" ht="23" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>140</v>
       </c>
@@ -1416,7 +1464,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" ht="23" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>141</v>
       </c>
@@ -1424,7 +1472,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" ht="23" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>142</v>
       </c>
@@ -1432,7 +1480,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" ht="23" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>143</v>
       </c>
@@ -1440,73 +1488,165 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+    <row r="47" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <f>SUM(C49:C62)</f>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="2">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="2">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="2">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="2">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="2">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="2">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="2">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="2">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="2">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="2">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="2">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="2">
+        <v>52.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/promos/NFL_Grand_Salami.xlsx
+++ b/promos/NFL_Grand_Salami.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevorross/Desktop/My Projects/bettingatwork/promos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D3D78D-B589-9B4B-A433-EE50C10F90F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30510945-D52F-5949-AB94-63AED83E6BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{86D8E161-8918-1F44-9DF6-E88F445DFADA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="176">
   <si>
     <t>odds</t>
   </si>
@@ -515,6 +515,54 @@
   </si>
   <si>
     <t>Las Vegas Raiders at Los Angeles Chargers</t>
+  </si>
+  <si>
+    <t>Los Angeles Rams at Seattle Seahawks</t>
+  </si>
+  <si>
+    <t>New York Jets vs. Atlanta Falcons</t>
+  </si>
+  <si>
+    <t>Philadelphia Eagles at Carolina Panthers</t>
+  </si>
+  <si>
+    <t>Miami Dolphins at Tampa Bay Buccaneers</t>
+  </si>
+  <si>
+    <t>New Orleans Saints at Washington Football Team</t>
+  </si>
+  <si>
+    <t>Tennessee Titans at Jacksonville Jaguars</t>
+  </si>
+  <si>
+    <t>Detroit Lions at Minnesota Vikings</t>
+  </si>
+  <si>
+    <t>Denver Broncos at Pittsburgh Steelers</t>
+  </si>
+  <si>
+    <t>Green Bay Packers at Cincinnati Bengals</t>
+  </si>
+  <si>
+    <t>New England Patriots at Houston Texans</t>
+  </si>
+  <si>
+    <t>Chicago Bears at Las Vegas Raiders</t>
+  </si>
+  <si>
+    <t>Cleveland Browns at Los Angeles Chargers</t>
+  </si>
+  <si>
+    <t>New York Giants at Dallas Cowboys</t>
+  </si>
+  <si>
+    <t>San Francisco 49ers at Arizona Cardinals</t>
+  </si>
+  <si>
+    <t>Buffalo Bills at Kansas City Chiefs</t>
+  </si>
+  <si>
+    <t>Indianapolis Colts at Baltimore Ravens</t>
   </si>
 </sst>
 </file>
@@ -988,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553B0987-CD40-5446-A40C-0C79764CC678}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1646,6 +1694,146 @@
       </c>
       <c r="C63" s="2">
         <v>52.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="2">
+        <v>54.5</v>
+      </c>
+      <c r="E68">
+        <f>SUM(C69:C82)</f>
+        <v>663.6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="2">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="2">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="2">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" s="2">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="2">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="2">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="2">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="2">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="2">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="2">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="2">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="2">
+        <v>46.5</v>
       </c>
     </row>
   </sheetData>
